--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/900d4ce252afc504/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2009t\IdeaProjects\ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{6A6DB372-7EC9-4399-AF33-C0BFC6292AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37C0A4B-7567-4FBE-A9FA-196A80B4A241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{847BD067-0F8B-4EFF-9A91-996DB45922CE}"/>
+    <workbookView xWindow="4905" yWindow="945" windowWidth="21600" windowHeight="11295" xr2:uid="{847BD067-0F8B-4EFF-9A91-996DB45922CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
   <si>
     <t>インベントリボタン押時、インベントリ選択画面を表示できる</t>
   </si>
@@ -50,9 +50,6 @@
     <t>船や梯子を選択時に、勇者の画像を変更できる</t>
   </si>
   <si>
-    <t>設定ボタンを押時、</t>
-  </si>
-  <si>
     <t>インベントリ画面にて、アイテム画像一覧を表示できる</t>
   </si>
   <si>
@@ -77,21 +74,12 @@
     <t>移動ボタンを押しながら、移動したい方向にスクロールするとその方向に勇者（主人公）が移動する。</t>
   </si>
   <si>
-    <t>敵と座標が重なったときに戦闘開始</t>
-  </si>
-  <si>
-    <t>戦う、逃げる、アイテムが三角形の選択肢</t>
-  </si>
-  <si>
     <t>行動したり、攻撃の効果やアイテムの一覧などは黒のボードのバトルボードに表示する</t>
   </si>
   <si>
     <t>攻撃や回復、敵のダメージを受けた時のダメージや衝撃のエフェクトなどを選択肢を選択したときに表示する</t>
   </si>
   <si>
-    <t>レアリティは5段階でノーマル、レア、ハイパー、レジェント、オーシャンがある。</t>
-  </si>
-  <si>
     <t>レアリティは売る時の価格の指標になる</t>
   </si>
   <si>
@@ -132,13 +120,772 @@
   </si>
   <si>
     <t>マップの画面にて場面変更したときその場面に応じたマップに変更される</t>
+  </si>
+  <si>
+    <t>移動系</t>
+  </si>
+  <si>
+    <t>移動系</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バトル系</t>
+  </si>
+  <si>
+    <t>バトル系</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定系</t>
+    <rPh sb="0" eb="3">
+      <t>セッテイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インベントリ系　</t>
+  </si>
+  <si>
+    <t>インベントリ系　</t>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インベントリ系　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動系</t>
+    <rPh sb="0" eb="3">
+      <t>イドウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵と座標が重なったときに戦闘画面に切り替える</t>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戦う、逃げる、アイテムが三角形の選択肢から選択できる</t>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バトル系</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レアリティは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>段階でノーマル、レア、ハイパー、レジェント、オーシャンがある。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レアリティはアイテムにある希少度やそのアイテムの強さが示される</t>
+    </r>
+    <rPh sb="13" eb="15">
+      <t>キショウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レアリティはインベントリを見たときに背景の色がレアリティに応じて変わる</t>
+    </r>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お店系</t>
+  </si>
+  <si>
+    <t>お店系</t>
+    <rPh sb="1" eb="3">
+      <t>ミセケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイテム系</t>
+  </si>
+  <si>
+    <t>アイテム系</t>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイテム系</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お店系</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定ボタンを押時、設定画面に移動できる</t>
+    <rPh sb="9" eb="13">
+      <t>セッテイガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイレム系</t>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モンスター系</t>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モンスターの技には遠距離と近距離攻撃がある。</t>
+    <rPh sb="6" eb="7">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>キンキョリコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>近距離攻撃はMPを少し消費の消費に抑えられるが遠距離攻撃よりも行動が遅い</t>
+    <rPh sb="0" eb="5">
+      <t>キンキョリコウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="23" eb="28">
+      <t>エンキョリコウゲキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遠距離はMPを大量に消費するが近距離攻撃よりも早く攻撃できる</t>
+    <rPh sb="0" eb="3">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="15" eb="20">
+      <t>キンキョリコウゲキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>近距離攻撃と近距離攻撃などの同種類で攻撃しあった場合はそのモンスターが持っている速さでどっちが先行するか決まる</t>
+    <rPh sb="0" eb="3">
+      <t>キンキョリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>キンキョリコウゲキ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ドウシュルイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーは勇者で勇者は自分で戦うのではなく後ろで指示を出して戦闘する</t>
+    <rPh sb="6" eb="8">
+      <t>ユウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ユウシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勇者か手持ちのモンスターが全員倒されると戦闘終了で負け</t>
+    <rPh sb="0" eb="2">
+      <t>ユウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テモ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵のモンスター全員か敵にもモンスターを指示する人物がいた場合、その人物を倒すと戦闘終了で勝ち</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイテムはモンスター専用のアイテムと勇者（指示役）専用のアイテムに分けられる</t>
+    <rPh sb="10" eb="12">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ユウシャ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>シジヤク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モンスター専用のアイテムはそれを身に着けたモンスターのステータスを上昇させる</t>
+    <rPh sb="5" eb="7">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勇者専用のアイテムはそれを身に着けた勇者が所有できるモンスターの数が変わる（最初は1匹しか所有できない）</t>
+    <rPh sb="0" eb="4">
+      <t>ユウシャセンヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ユウシャ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="42" eb="47">
+      <t>ピキシカショユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モンスター専用のアイテムの中にも薬草などの戦闘時に使えるアイテムは装備はできない</t>
+    <rPh sb="16" eb="18">
+      <t>ヤクソウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>セントウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>近接攻撃でもより多くのMPを消費すると素早さがはやくなったり攻撃力が強くなったりできる</t>
+    <rPh sb="0" eb="4">
+      <t>キンセツコウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>近距離攻撃でさらにMPの消費を抑えることでさらに素早さが遅くなったり、攻撃力が弱くなったりする</t>
+    <rPh sb="0" eb="5">
+      <t>キンキョリコウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヨワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遠距離攻撃も同じでMPを抑えたり、MPをさらに消費して恩恵などを得れる</t>
+    <rPh sb="0" eb="5">
+      <t>エンキョリコウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>オンケイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定画面にてミュージックのオンオフやヘルプ、マップの表示位置、設定ボタン、インベントリボタンの表示位置などが設定できる</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイガメン</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ヒョウジイチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t>ヒョウジイチ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘルプは名前の変更の仕方などの情報が載っている</t>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インベントリ系</t>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薬草などの戦闘中にしか使えない特定のアイテムには手に持つという選択肢をなくなり、「使う」と「捨てる」の選択肢しかなくなる</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクソウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セントウチュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>剣などの装備できるアイテムはギミックにまつわるもの以外、使うの選択肢がなくなり、「手に持つ」と「捨てる」の選択肢しかなくなる</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イベント系</t>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>船を使ったときに勇者が船に退ている画像とまではいかなくとも、勇者がいるマスに水しぶきを建てたい</t>
+    <rPh sb="0" eb="1">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="19">
+      <t>ユウシャガフネニノテイルガゾウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ユウシャ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モンスターはシンボルエンカウント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モンスターの上にビックリマークがついているときは、そのモンスターは敵ではなく、情報をくれるお助けキャラ</t>
+    <rPh sb="6" eb="7">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>タス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定の位置にいるとき、操作不能になり勝手にセリフが出てきたり、画面がスクロールしたりする</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ソウサフノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フェードアウトしているときや誰かがセリフを放っているときは移動できなくなる</t>
+    <rPh sb="14" eb="15">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モンスター一行が一人ずつ後ろをついてくる</t>
+    <rPh sb="5" eb="7">
+      <t>イッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番手、二番手の順にプレイヤーの後ろに並ばせる</t>
+    <rPh sb="0" eb="3">
+      <t>イチバンテ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンテ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +907,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,7 +944,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -192,20 +967,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,183 +1329,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F365D19-F2B6-4F8B-8745-3EB500570251}">
-  <dimension ref="B1:B36"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
+    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
+    <row r="11" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
+    <row r="26" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="2:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
+    <row r="44" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="2" t="s">
+    <row r="45" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="2" t="s">
+    <row r="52" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="2" t="s">
+    <row r="53" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="2" t="s">
+    <row r="54" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="2" t="s">
+    <row r="55" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="2" t="s">
+    <row r="56" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="2" t="s">
+    <row r="57" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="2" t="s">
+    <row r="58" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="2" t="s">
+    <row r="59" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="1"/>
+    <row r="60" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2009t\IdeaProjects\ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37C0A4B-7567-4FBE-A9FA-196A80B4A241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9972C6B0-A42C-4EB6-B587-92FDE22F1314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="945" windowWidth="21600" windowHeight="11295" xr2:uid="{847BD067-0F8B-4EFF-9A91-996DB45922CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{847BD067-0F8B-4EFF-9A91-996DB45922CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="インベントリ系詳細設計" sheetId="2" r:id="rId2"/>
+    <sheet name="バトル系詳細設計" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t>インベントリボタン押時、インベントリ選択画面を表示できる</t>
   </si>
@@ -426,31 +428,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プレイヤーは勇者で勇者は自分で戦うのではなく後ろで指示を出して戦闘する</t>
-    <rPh sb="6" eb="8">
-      <t>ユウシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ユウシャ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ウシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>勇者か手持ちのモンスターが全員倒されると戦闘終了で負け</t>
     <rPh sb="0" eb="2">
       <t>ユウシャ</t>
@@ -877,6 +854,89 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップ系</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップの描画やフェードアウトなどのマップの切り替えができるようにする</t>
+    <rPh sb="4" eb="6">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行動ボタンや移動ボタンなどのデザイン</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モンスターのデザイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戦うボタンを押したときにBattleManagerクラスのwhat_didをfightにさせる</t>
+    <rPh sb="0" eb="1">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイテムボタンを押したときにBattleManagerクラスのwhat_didをitemにさせる</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>逃げるボタンを押したときにBattleManagerクラスのwhat_didをgobackにさせる</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戦闘終了するとマップに戻って勇者を操作できる状態に戻る</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ユウシャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -936,12 +996,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -984,7 +1050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,6 +1079,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F365D19-F2B6-4F8B-8745-3EB500570251}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1340,8 +1409,8 @@
     <col min="2" max="2" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1349,520 +1418,731 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="10"/>
       <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="2:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>52</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>52</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>52</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>52</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>52</v>
       </c>
-      <c r="C69" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>52</v>
       </c>
-      <c r="C70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>52</v>
       </c>
-      <c r="C71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>52</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" t="s">
-        <v>76</v>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1870,4 +2150,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27182D4C-6D51-4B90-A540-492FBCFA5C7C}">
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5AF0BD-9CFF-4237-BCF4-7F537B8D9119}">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2009t\IdeaProjects\ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9972C6B0-A42C-4EB6-B587-92FDE22F1314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584233B8-BB8C-4D9D-8FB5-DB48ABB01DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{847BD067-0F8B-4EFF-9A91-996DB45922CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{847BD067-0F8B-4EFF-9A91-996DB45922CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>インベントリボタン押時、インベントリ選択画面を表示できる</t>
   </si>
@@ -521,37 +521,6 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ジョウショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>勇者専用のアイテムはそれを身に着けた勇者が所有できるモンスターの数が変わる（最初は1匹しか所有できない）</t>
-    <rPh sb="0" eb="4">
-      <t>ユウシャセンヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ユウシャ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="42" eb="47">
-      <t>ピキシカショユウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1398,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F365D19-F2B6-4F8B-8745-3EB500570251}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1506,13 +1475,13 @@
     </row>
     <row r="15" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1523,7 +1492,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1625,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1636,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1647,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1728,7 +1697,7 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1852,32 +1821,32 @@
         <v>11</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49">
-        <v>12</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D50" s="1"/>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="51" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1885,10 +1854,10 @@
         <v>43</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1896,10 +1865,10 @@
         <v>43</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1907,10 +1876,10 @@
         <v>43</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1918,10 +1887,10 @@
         <v>43</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1929,10 +1898,10 @@
         <v>43</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1940,10 +1909,10 @@
         <v>43</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1951,33 +1920,33 @@
         <v>43</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59">
-        <v>9</v>
-      </c>
-      <c r="D59" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>32</v>
       </c>
       <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.4">
@@ -1985,21 +1954,21 @@
         <v>32</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>67</v>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.4">
@@ -2007,10 +1976,10 @@
         <v>52</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.4">
@@ -2018,10 +1987,10 @@
         <v>52</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.4">
@@ -2029,10 +1998,10 @@
         <v>52</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.4">
@@ -2040,10 +2009,10 @@
         <v>52</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.4">
@@ -2051,7 +2020,7 @@
         <v>52</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
         <v>63</v>
@@ -2062,7 +2031,7 @@
         <v>52</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
         <v>64</v>
@@ -2073,51 +2042,51 @@
         <v>52</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B72" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72">
-        <v>8</v>
-      </c>
-      <c r="D72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s">
-        <v>75</v>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
         <v>80</v>
@@ -2125,24 +2094,13 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B79" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +2114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27182D4C-6D51-4B90-A540-492FBCFA5C7C}">
   <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2167,7 +2125,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2197,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
@@ -2208,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
@@ -2219,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
